--- a/biology/Médecine/Carl_Caspar_von_Siebold/Carl_Caspar_von_Siebold.xlsx
+++ b/biology/Médecine/Carl_Caspar_von_Siebold/Carl_Caspar_von_Siebold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Caspar von Siebold (né le 4 novembre 1736 – mort le 3 avril 1807) est un chirurgien et obstétricien allemand natif de Nideggen, dans le Duché de Juliers. Il est le grand-père de Philipp Franz von Siebold (1796–1866).
 De 1760 à 1763, il étudie la médecine à Wurtzbourg, puis parfait son art à Paris, Londres et Leyde. En 1769, il devient professeur d'anatomie, de chirurgie et d'obstétrique à l'université de Wurtzbourg, poste qu'il occupe jusqu'à sa mort.
